--- a/It201819/DEtailed Calculation/amit kuri.xlsx
+++ b/It201819/DEtailed Calculation/amit kuri.xlsx
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="G40">
-        <v>44400</v>
+        <v>44724</v>
       </c>
       <c r="H40" s="23"/>
     </row>
@@ -1423,11 +1423,11 @@
       </c>
       <c r="G43" s="2">
         <f>SUM(G33:G40,H41,G42)</f>
-        <v>145120</v>
+        <v>145444</v>
       </c>
       <c r="H43" s="18">
         <f>IF(G43&gt;150000,150000,G43)</f>
-        <v>145120</v>
+        <v>145444</v>
       </c>
     </row>
     <row r="44" spans="6:8" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="21">
         <f>SUM(H43,H45,H49,H50,H51,H52)</f>
-        <v>192960</v>
+        <v>193284</v>
       </c>
     </row>
     <row r="54" spans="6:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="H54">
         <f>H31-H53</f>
-        <v>402498</v>
+        <v>402174</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="G56">
         <f>IF((H54-250000)*0.05&gt;12500,12500,(H54-250000)*0.05)</f>
-        <v>7624.9000000000005</v>
+        <v>7608.7000000000007</v>
       </c>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.25">
@@ -1554,18 +1554,18 @@
       <c r="F58" s="12"/>
       <c r="G58">
         <f>SUM(G55:G56)-G57</f>
-        <v>7624.9000000000005</v>
+        <v>7608.7000000000007</v>
       </c>
     </row>
     <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59">
         <f>IF(G58&lt;0,0,ROUND(G58,1))</f>
-        <v>7624.9</v>
+        <v>7608.7</v>
       </c>
       <c r="H59" s="16">
         <f>IF(ROUND(G59,-1)&lt;G59,ROUND(G59,-1)+10,ROUND(G59,-1))</f>
-        <v>7630</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="60" spans="6:8" x14ac:dyDescent="0.25">
@@ -1580,7 +1580,7 @@
     <row r="61" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="2">
         <f>H59-H60</f>
-        <v>7630</v>
+        <v>7610</v>
       </c>
     </row>
   </sheetData>
